--- a/permit/doc/导入/已售记录.xlsx
+++ b/permit/doc/导入/已售记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="9870"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="预售许可证" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>基本信息</t>
   </si>
@@ -74,15 +74,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>录入日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2016-09-20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售（备案）证号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -113,6 +105,22 @@
 4. 不要修改表头和表尾，包括增加/删除行。但允许修改行和单元格的高度和宽度，以及允许增加数据记录行。</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售（备案）证号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015011902</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015011903</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -762,7 +770,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -840,7 +848,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -878,7 +886,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>30000</v>
@@ -908,8 +916,12 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="7">
         <v>20000</v>
       </c>
@@ -938,8 +950,12 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C7" s="7">
         <v>15000</v>
       </c>
@@ -1263,7 +1279,7 @@
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>

--- a/permit/doc/导入/已售记录.xlsx
+++ b/permit/doc/导入/已售记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>基本信息</t>
   </si>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2015011901</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>已售计容面积</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -67,10 +63,6 @@
   </si>
   <si>
     <t>已售记录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售信息</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -111,15 +103,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>录入日期</t>
+    <t>abcd</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2015011902</t>
+    <t>2008001701</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2015011903</t>
+    <t>2008005201</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>已售信息(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>累计</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -192,6 +216,14 @@
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -770,7 +802,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -791,7 +823,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="34.5" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -811,7 +843,7 @@
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -827,17 +859,17 @@
       <c r="A3" s="23"/>
       <c r="B3" s="24"/>
       <c r="C3" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
@@ -845,10 +877,10 @@
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -883,13 +915,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7">
-        <v>30000</v>
+        <v>11111</v>
       </c>
       <c r="D5" s="7">
         <v>20000</v>
@@ -917,13 +949,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7">
-        <v>20000</v>
+        <v>22222</v>
       </c>
       <c r="D6" s="7">
         <v>1000</v>
@@ -951,13 +983,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7">
-        <v>15000</v>
+        <v>33333</v>
       </c>
       <c r="D7" s="7">
         <v>2000</v>
@@ -984,8 +1016,12 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1279,7 +1315,7 @@
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
